--- a/Code/Results/Cases/Case_0_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003378960295341</v>
+        <v>1.040226340180912</v>
       </c>
       <c r="D2">
-        <v>1.016895961061011</v>
+        <v>1.047336845981845</v>
       </c>
       <c r="E2">
-        <v>1.009219014860013</v>
+        <v>1.03863965568597</v>
       </c>
       <c r="F2">
-        <v>1.023075994862553</v>
+        <v>1.055638296016008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045049361922013</v>
+        <v>1.036321019683814</v>
       </c>
       <c r="J2">
-        <v>1.02545907480827</v>
+        <v>1.045314091273764</v>
       </c>
       <c r="K2">
-        <v>1.028124821677087</v>
+        <v>1.050099766748066</v>
       </c>
       <c r="L2">
-        <v>1.020551391066125</v>
+        <v>1.04142711491686</v>
       </c>
       <c r="M2">
-        <v>1.034222939497568</v>
+        <v>1.058378203606451</v>
       </c>
       <c r="N2">
-        <v>1.011996628345386</v>
+        <v>1.018955348806655</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008756078169935</v>
+        <v>1.041351736615342</v>
       </c>
       <c r="D3">
-        <v>1.021506459833719</v>
+        <v>1.048351073446975</v>
       </c>
       <c r="E3">
-        <v>1.013584868761117</v>
+        <v>1.039601712462545</v>
       </c>
       <c r="F3">
-        <v>1.028057592798745</v>
+        <v>1.05674010434856</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046282461749717</v>
+        <v>1.036506607541424</v>
       </c>
       <c r="J3">
-        <v>1.029010856759968</v>
+        <v>1.046084139735947</v>
       </c>
       <c r="K3">
-        <v>1.031871362339364</v>
+        <v>1.050925293048035</v>
       </c>
       <c r="L3">
-        <v>1.024046830025492</v>
+        <v>1.042198825033247</v>
       </c>
       <c r="M3">
-        <v>1.038343629582581</v>
+        <v>1.059292757763106</v>
       </c>
       <c r="N3">
-        <v>1.013216937025908</v>
+        <v>1.019216001933543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01215566445235</v>
+        <v>1.042079954943642</v>
       </c>
       <c r="D4">
-        <v>1.024426834029457</v>
+        <v>1.049007641102278</v>
       </c>
       <c r="E4">
-        <v>1.016351228671484</v>
+        <v>1.040224574054876</v>
       </c>
       <c r="F4">
-        <v>1.031213191480946</v>
+        <v>1.057453425480667</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047050289143857</v>
+        <v>1.036625204940288</v>
       </c>
       <c r="J4">
-        <v>1.031253456631024</v>
+        <v>1.046581879080664</v>
       </c>
       <c r="K4">
-        <v>1.034239123222481</v>
+        <v>1.051459149837395</v>
       </c>
       <c r="L4">
-        <v>1.026256234352992</v>
+        <v>1.042697901974708</v>
       </c>
       <c r="M4">
-        <v>1.04094894877059</v>
+        <v>1.059884320470822</v>
       </c>
       <c r="N4">
-        <v>1.013986878404703</v>
+        <v>1.019384351613516</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01356654080596</v>
+        <v>1.042386101411293</v>
       </c>
       <c r="D5">
-        <v>1.025640089381435</v>
+        <v>1.049283732734614</v>
       </c>
       <c r="E5">
-        <v>1.017500719729141</v>
+        <v>1.040486507960088</v>
       </c>
       <c r="F5">
-        <v>1.032524214745323</v>
+        <v>1.057753396188461</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04736607456813</v>
+        <v>1.036674706369538</v>
       </c>
       <c r="J5">
-        <v>1.032183413322985</v>
+        <v>1.046791001087491</v>
       </c>
       <c r="K5">
-        <v>1.035221507689088</v>
+        <v>1.051683508160625</v>
       </c>
       <c r="L5">
-        <v>1.027172994413514</v>
+        <v>1.042907649041724</v>
       </c>
       <c r="M5">
-        <v>1.04203016085489</v>
+        <v>1.060132962059257</v>
       </c>
       <c r="N5">
-        <v>1.014306013606415</v>
+        <v>1.019455051473494</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013802381485088</v>
+        <v>1.042437504975233</v>
       </c>
       <c r="D6">
-        <v>1.025842968434471</v>
+        <v>1.049330093875346</v>
       </c>
       <c r="E6">
-        <v>1.017692948934152</v>
+        <v>1.040530492674196</v>
       </c>
       <c r="F6">
-        <v>1.032743445240482</v>
+        <v>1.057803767901466</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047418690614635</v>
+        <v>1.036682996943949</v>
       </c>
       <c r="J6">
-        <v>1.032338818320076</v>
+        <v>1.046826106112434</v>
       </c>
       <c r="K6">
-        <v>1.035385704859966</v>
+        <v>1.051721174510573</v>
       </c>
       <c r="L6">
-        <v>1.027326227515477</v>
+        <v>1.042942862693374</v>
       </c>
       <c r="M6">
-        <v>1.042210891792157</v>
+        <v>1.0601747070662</v>
       </c>
       <c r="N6">
-        <v>1.01435933567574</v>
+        <v>1.019466917929856</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012174587588253</v>
+        <v>1.04208404567315</v>
       </c>
       <c r="D7">
-        <v>1.024443101701105</v>
+        <v>1.049011329974755</v>
       </c>
       <c r="E7">
-        <v>1.016366640512859</v>
+        <v>1.040228073702916</v>
       </c>
       <c r="F7">
-        <v>1.031230769867009</v>
+        <v>1.057457433348155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047054535982185</v>
+        <v>1.036625867783403</v>
       </c>
       <c r="J7">
-        <v>1.031265932554251</v>
+        <v>1.046584673880458</v>
       </c>
       <c r="K7">
-        <v>1.034252300413578</v>
+        <v>1.051462148019167</v>
       </c>
       <c r="L7">
-        <v>1.026268530989008</v>
+        <v>1.042700704880187</v>
       </c>
       <c r="M7">
-        <v>1.040963450536895</v>
+        <v>1.059887643033646</v>
       </c>
       <c r="N7">
-        <v>1.013991160366707</v>
+        <v>1.019385296600701</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005213187984029</v>
+        <v>1.040606671203577</v>
       </c>
       <c r="D8">
-        <v>1.018467499267832</v>
+        <v>1.047679547918218</v>
       </c>
       <c r="E8">
-        <v>1.010706959691668</v>
+        <v>1.038964715487316</v>
       </c>
       <c r="F8">
-        <v>1.024773995525025</v>
+        <v>1.056010579227328</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045472438022421</v>
+        <v>1.036384048483159</v>
       </c>
       <c r="J8">
-        <v>1.026671239994039</v>
+        <v>1.045574443287322</v>
       </c>
       <c r="K8">
-        <v>1.029402994728913</v>
+        <v>1.05037882227814</v>
       </c>
       <c r="L8">
-        <v>1.021743825586238</v>
+        <v>1.041687974113408</v>
       </c>
       <c r="M8">
-        <v>1.035628526520121</v>
+        <v>1.058687326037041</v>
       </c>
       <c r="N8">
-        <v>1.012413213618513</v>
+        <v>1.019043501973686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9922974564539181</v>
+        <v>1.038003405212314</v>
       </c>
       <c r="D9">
-        <v>1.007427192044514</v>
+        <v>1.045335031896258</v>
       </c>
       <c r="E9">
-        <v>1.000258261787056</v>
+        <v>1.036741173283882</v>
       </c>
       <c r="F9">
-        <v>1.01284571636357</v>
+        <v>1.053463921589116</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042445127119634</v>
+        <v>1.035946522867552</v>
       </c>
       <c r="J9">
-        <v>1.018125174465283</v>
+        <v>1.043790196599426</v>
       </c>
       <c r="K9">
-        <v>1.02040090669326</v>
+        <v>1.048467455316499</v>
       </c>
       <c r="L9">
-        <v>1.01334715026308</v>
+        <v>1.039901335153181</v>
       </c>
       <c r="M9">
-        <v>1.025733762910789</v>
+        <v>1.056570562825795</v>
       </c>
       <c r="N9">
-        <v>1.009474087284587</v>
+        <v>1.018438841630936</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.983193358732585</v>
+        <v>1.036267884919996</v>
       </c>
       <c r="D10">
-        <v>0.9996806323817652</v>
+        <v>1.043773529903556</v>
       </c>
       <c r="E10">
-        <v>0.9929327342730393</v>
+        <v>1.035260598102259</v>
       </c>
       <c r="F10">
-        <v>1.004476383912348</v>
+        <v>1.051768076325791</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040252096686829</v>
+        <v>1.035647174234391</v>
       </c>
       <c r="J10">
-        <v>1.012090030001775</v>
+        <v>1.042597937984961</v>
       </c>
       <c r="K10">
-        <v>1.014055655504737</v>
+        <v>1.047191582562689</v>
       </c>
       <c r="L10">
-        <v>1.007430773651127</v>
+        <v>1.038708840554259</v>
       </c>
       <c r="M10">
-        <v>1.018765283502434</v>
+        <v>1.055158267500551</v>
       </c>
       <c r="N10">
-        <v>1.007396183557569</v>
+        <v>1.018034140169542</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9791198944713559</v>
+        <v>1.035516371705961</v>
       </c>
       <c r="D11">
-        <v>0.9962240141079227</v>
+        <v>1.043097737640106</v>
       </c>
       <c r="E11">
-        <v>0.9896655256217776</v>
+        <v>1.034619915486751</v>
       </c>
       <c r="F11">
-        <v>1.000741846586346</v>
+        <v>1.051034209713021</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039257602745327</v>
+        <v>1.035515735844744</v>
       </c>
       <c r="J11">
-        <v>1.009387868768894</v>
+        <v>1.042081018946255</v>
       </c>
       <c r="K11">
-        <v>1.011217493049498</v>
+        <v>1.046638726609455</v>
       </c>
       <c r="L11">
-        <v>1.004785002524333</v>
+        <v>1.038192142796543</v>
       </c>
       <c r="M11">
-        <v>1.015649786314682</v>
+        <v>1.054546459353112</v>
       </c>
       <c r="N11">
-        <v>1.006465392916358</v>
+        <v>1.017858521850015</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9775857631538802</v>
+        <v>1.035237221913917</v>
       </c>
       <c r="D12">
-        <v>0.9949237067190093</v>
+        <v>1.042846770322877</v>
       </c>
       <c r="E12">
-        <v>0.9884367137264111</v>
+        <v>1.034381999784564</v>
       </c>
       <c r="F12">
-        <v>0.9993369787851658</v>
+        <v>1.050761685476959</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038881137248733</v>
+        <v>1.035466640582665</v>
       </c>
       <c r="J12">
-        <v>1.008369988002581</v>
+        <v>1.04188891219726</v>
       </c>
       <c r="K12">
-        <v>1.010148811012016</v>
+        <v>1.046433311660152</v>
       </c>
       <c r="L12">
-        <v>1.003788852484443</v>
+        <v>1.038000166942029</v>
       </c>
       <c r="M12">
-        <v>1.014476892268251</v>
+        <v>1.054319164884388</v>
       </c>
       <c r="N12">
-        <v>1.006114717036032</v>
+        <v>1.017793232275295</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9779158154961256</v>
+        <v>1.035297100705149</v>
       </c>
       <c r="D13">
-        <v>0.9952033845437063</v>
+        <v>1.042900601315608</v>
       </c>
       <c r="E13">
-        <v>0.9887010026679601</v>
+        <v>1.034433030691906</v>
       </c>
       <c r="F13">
-        <v>0.999639146818008</v>
+        <v>1.050820139848598</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038962215588284</v>
+        <v>1.035477184045378</v>
       </c>
       <c r="J13">
-        <v>1.008588982411744</v>
+        <v>1.041930124278228</v>
       </c>
       <c r="K13">
-        <v>1.010378715764368</v>
+        <v>1.046477376568092</v>
       </c>
       <c r="L13">
-        <v>1.004003149386623</v>
+        <v>1.038041348740202</v>
       </c>
       <c r="M13">
-        <v>1.014729206310817</v>
+        <v>1.054367922211706</v>
       </c>
       <c r="N13">
-        <v>1.006190166362463</v>
+        <v>1.017807239695662</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9789935205570957</v>
+        <v>1.035493297191602</v>
       </c>
       <c r="D14">
-        <v>0.9961168701966934</v>
+        <v>1.043076991544083</v>
       </c>
       <c r="E14">
-        <v>0.9895642678387934</v>
+        <v>1.034600248029782</v>
       </c>
       <c r="F14">
-        <v>1.000626087328377</v>
+        <v>1.051011681420656</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039226630090238</v>
+        <v>1.035511683188035</v>
       </c>
       <c r="J14">
-        <v>1.009304024646166</v>
+        <v>1.042065141384586</v>
       </c>
       <c r="K14">
-        <v>1.011129455632833</v>
+        <v>1.046621748164138</v>
       </c>
       <c r="L14">
-        <v>1.004702938417163</v>
+        <v>1.038176275060568</v>
       </c>
       <c r="M14">
-        <v>1.015553159584862</v>
+        <v>1.054527671973886</v>
       </c>
       <c r="N14">
-        <v>1.006436508360268</v>
+        <v>1.017853126158654</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9796546969545292</v>
+        <v>1.035614179716548</v>
       </c>
       <c r="D15">
-        <v>0.9966774990860794</v>
+        <v>1.04318567826876</v>
       </c>
       <c r="E15">
-        <v>0.9900941076502271</v>
+        <v>1.034703284406678</v>
       </c>
       <c r="F15">
-        <v>1.001231795303124</v>
+        <v>1.051129705303398</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039388598194848</v>
+        <v>1.035532903048185</v>
       </c>
       <c r="J15">
-        <v>1.00974268132835</v>
+        <v>1.042148316617739</v>
       </c>
       <c r="K15">
-        <v>1.011590068330399</v>
+        <v>1.046710692357172</v>
       </c>
       <c r="L15">
-        <v>1.005132302347649</v>
+        <v>1.038259400813921</v>
       </c>
       <c r="M15">
-        <v>1.016058720449743</v>
+        <v>1.054626093540315</v>
       </c>
       <c r="N15">
-        <v>1.006587624743949</v>
+        <v>1.017881390754114</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9834608228911058</v>
+        <v>1.036317759830868</v>
       </c>
       <c r="D16">
-        <v>0.9999077982257314</v>
+        <v>1.043818387323198</v>
       </c>
       <c r="E16">
-        <v>0.9931474853495688</v>
+        <v>1.035303126850867</v>
       </c>
       <c r="F16">
-        <v>1.004721813011581</v>
+        <v>1.051816789985902</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040317125268295</v>
+        <v>1.035655859055556</v>
       </c>
       <c r="J16">
-        <v>1.012267421942839</v>
+        <v>1.042632230195301</v>
       </c>
       <c r="K16">
-        <v>1.014242034962943</v>
+        <v>1.047228265447795</v>
       </c>
       <c r="L16">
-        <v>1.007604530999839</v>
+        <v>1.038743124902811</v>
       </c>
       <c r="M16">
-        <v>1.018969905060181</v>
+        <v>1.055198865367566</v>
       </c>
       <c r="N16">
-        <v>1.007457280072599</v>
+        <v>1.018045787371804</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9858122381408522</v>
+        <v>1.036759090524655</v>
       </c>
       <c r="D17">
-        <v>1.001906012451155</v>
+        <v>1.044215362046199</v>
       </c>
       <c r="E17">
-        <v>0.9950366722553714</v>
+        <v>1.035679503470927</v>
       </c>
       <c r="F17">
-        <v>1.006880671563738</v>
+        <v>1.052247899035781</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040887327375166</v>
+        <v>1.035732499265801</v>
       </c>
       <c r="J17">
-        <v>1.013826764876177</v>
+        <v>1.042935598585339</v>
       </c>
       <c r="K17">
-        <v>1.015880704695566</v>
+        <v>1.04755281947755</v>
       </c>
       <c r="L17">
-        <v>1.009132289869474</v>
+        <v>1.039046461105621</v>
       </c>
       <c r="M17">
-        <v>1.020769123750339</v>
+        <v>1.055558076126776</v>
       </c>
       <c r="N17">
-        <v>1.007994293623134</v>
+        <v>1.0181488072893</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9871712035316775</v>
+        <v>1.037016509253166</v>
       </c>
       <c r="D18">
-        <v>1.003061737366863</v>
+        <v>1.04444694432363</v>
       </c>
       <c r="E18">
-        <v>0.9961294831111182</v>
+        <v>1.035899077756098</v>
       </c>
       <c r="F18">
-        <v>1.008129307557101</v>
+        <v>1.052499400672343</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041215607749403</v>
+        <v>1.035777026748445</v>
       </c>
       <c r="J18">
-        <v>1.014727784318663</v>
+        <v>1.043112484270916</v>
       </c>
       <c r="K18">
-        <v>1.016827829694136</v>
+        <v>1.047742088298991</v>
       </c>
       <c r="L18">
-        <v>1.010015362857204</v>
+        <v>1.039223359219539</v>
       </c>
       <c r="M18">
-        <v>1.021809178589563</v>
+        <v>1.05576757118151</v>
       </c>
       <c r="N18">
-        <v>1.008304548933969</v>
+        <v>1.018208860410118</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9876324812648812</v>
+        <v>1.037104282081691</v>
       </c>
       <c r="D19">
-        <v>1.003454176373993</v>
+        <v>1.044525913611011</v>
       </c>
       <c r="E19">
-        <v>0.9965005832128346</v>
+        <v>1.035973953732175</v>
       </c>
       <c r="F19">
-        <v>1.008553295410626</v>
+        <v>1.052585163541703</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041326821318581</v>
+        <v>1.035792179708737</v>
       </c>
       <c r="J19">
-        <v>1.015033587514425</v>
+        <v>1.043172786880294</v>
       </c>
       <c r="K19">
-        <v>1.017149326548503</v>
+        <v>1.047806617631921</v>
       </c>
       <c r="L19">
-        <v>1.010315126378783</v>
+        <v>1.039283671355992</v>
       </c>
       <c r="M19">
-        <v>1.022162242905529</v>
+        <v>1.055838999097188</v>
       </c>
       <c r="N19">
-        <v>1.008409841228098</v>
+        <v>1.018229330756232</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9855612635387775</v>
+        <v>1.036711740132359</v>
       </c>
       <c r="D20">
-        <v>1.001692643522575</v>
+        <v>1.044172766938239</v>
       </c>
       <c r="E20">
-        <v>0.9948349301072098</v>
+        <v>1.035639117667756</v>
       </c>
       <c r="F20">
-        <v>1.006650149354403</v>
+        <v>1.052201640667828</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0408265980042</v>
+        <v>1.035724294644603</v>
       </c>
       <c r="J20">
-        <v>1.013660348998788</v>
+        <v>1.042903056646715</v>
       </c>
       <c r="K20">
-        <v>1.015705794988913</v>
+        <v>1.047518001840063</v>
       </c>
       <c r="L20">
-        <v>1.008969213156502</v>
+        <v>1.039013919392207</v>
       </c>
       <c r="M20">
-        <v>1.020577063204435</v>
+        <v>1.05551953895581</v>
       </c>
       <c r="N20">
-        <v>1.007936986843552</v>
+        <v>1.018137758018625</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9786767560908992</v>
+        <v>1.035435522344556</v>
       </c>
       <c r="D21">
-        <v>0.9958483316219553</v>
+        <v>1.04302504758484</v>
       </c>
       <c r="E21">
-        <v>0.9893104858411632</v>
+        <v>1.034551004971939</v>
       </c>
       <c r="F21">
-        <v>1.000335955564415</v>
+        <v>1.050955275369591</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039148964385396</v>
+        <v>1.035501531591739</v>
       </c>
       <c r="J21">
-        <v>1.009093860852991</v>
+        <v>1.042025384975463</v>
       </c>
       <c r="K21">
-        <v>1.010908787840182</v>
+        <v>1.046579235976377</v>
       </c>
       <c r="L21">
-        <v>1.004497244309749</v>
+        <v>1.03813654404044</v>
       </c>
       <c r="M21">
-        <v>1.01531096595901</v>
+        <v>1.054480630804213</v>
       </c>
       <c r="N21">
-        <v>1.006364105440883</v>
+        <v>1.01783961531582</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9742255663982722</v>
+        <v>1.034633088013224</v>
       </c>
       <c r="D22">
-        <v>0.9920785391002759</v>
+        <v>1.042303731679131</v>
       </c>
       <c r="E22">
-        <v>0.9857484458081219</v>
+        <v>1.033867225965193</v>
       </c>
       <c r="F22">
-        <v>0.9962629913454184</v>
+        <v>1.05017202056298</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038053107371259</v>
+        <v>1.035359891020273</v>
       </c>
       <c r="J22">
-        <v>1.006140240845571</v>
+        <v>1.041472979197739</v>
       </c>
       <c r="K22">
-        <v>1.007808572127548</v>
+        <v>1.045988651433215</v>
       </c>
       <c r="L22">
-        <v>1.001607616009762</v>
+        <v>1.03758460639004</v>
       </c>
       <c r="M22">
-        <v>1.011908844401292</v>
+        <v>1.0538271866704</v>
       </c>
       <c r="N22">
-        <v>1.005346444450371</v>
+        <v>1.017651830718939</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.976597326922088</v>
+        <v>1.03505847642334</v>
       </c>
       <c r="D23">
-        <v>0.9940863601072999</v>
+        <v>1.042686086484542</v>
       </c>
       <c r="E23">
-        <v>0.9876454776292602</v>
+        <v>1.034229676032082</v>
       </c>
       <c r="F23">
-        <v>0.9984322945911686</v>
+        <v>1.050587202455592</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038638048614863</v>
+        <v>1.035435127186136</v>
       </c>
       <c r="J23">
-        <v>1.007714122556469</v>
+        <v>1.041765874934736</v>
       </c>
       <c r="K23">
-        <v>1.009460333289602</v>
+        <v>1.046301764308371</v>
       </c>
       <c r="L23">
-        <v>1.003147127782943</v>
+        <v>1.037877227215974</v>
       </c>
       <c r="M23">
-        <v>1.013721338902133</v>
+        <v>1.054173612771067</v>
       </c>
       <c r="N23">
-        <v>1.005888746897831</v>
+        <v>1.017751410220656</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9856747069215883</v>
+        <v>1.036733135742278</v>
       </c>
       <c r="D24">
-        <v>1.001789085967806</v>
+        <v>1.044192013729903</v>
       </c>
       <c r="E24">
-        <v>0.994926116815723</v>
+        <v>1.035657366149533</v>
       </c>
       <c r="F24">
-        <v>1.006754345063775</v>
+        <v>1.052222542699973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040854052284881</v>
+        <v>1.035728002501828</v>
       </c>
       <c r="J24">
-        <v>1.013735571436076</v>
+        <v>1.042917761145468</v>
       </c>
       <c r="K24">
-        <v>1.015784855928318</v>
+        <v>1.047533734549118</v>
       </c>
       <c r="L24">
-        <v>1.009042925301105</v>
+        <v>1.039028623692811</v>
       </c>
       <c r="M24">
-        <v>1.02066387607594</v>
+        <v>1.055536952326236</v>
       </c>
       <c r="N24">
-        <v>1.007962890485833</v>
+        <v>1.018142750821636</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9957190031489553</v>
+        <v>1.038676410076927</v>
       </c>
       <c r="D25">
-        <v>1.010346113052197</v>
+        <v>1.045940879059485</v>
       </c>
       <c r="E25">
-        <v>1.003019791134941</v>
+        <v>1.037315697407887</v>
       </c>
       <c r="F25">
-        <v>1.015999327060793</v>
+        <v>1.05412195314032</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043257493463567</v>
+        <v>1.036060985149884</v>
       </c>
       <c r="J25">
-        <v>1.020391303850085</v>
+        <v>1.044251953007518</v>
       </c>
       <c r="K25">
-        <v>1.022785914279811</v>
+        <v>1.04896187581291</v>
       </c>
       <c r="L25">
-        <v>1.015571408913668</v>
+        <v>1.040363470891795</v>
       </c>
       <c r="M25">
-        <v>1.028354249212133</v>
+        <v>1.057117993526121</v>
       </c>
       <c r="N25">
-        <v>1.010253880034121</v>
+        <v>1.018595442013909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040226340180912</v>
+        <v>1.003378960295341</v>
       </c>
       <c r="D2">
-        <v>1.047336845981845</v>
+        <v>1.01689596106101</v>
       </c>
       <c r="E2">
-        <v>1.03863965568597</v>
+        <v>1.009219014860013</v>
       </c>
       <c r="F2">
-        <v>1.055638296016008</v>
+        <v>1.023075994862553</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036321019683814</v>
+        <v>1.045049361922012</v>
       </c>
       <c r="J2">
-        <v>1.045314091273764</v>
+        <v>1.02545907480827</v>
       </c>
       <c r="K2">
-        <v>1.050099766748066</v>
+        <v>1.028124821677086</v>
       </c>
       <c r="L2">
-        <v>1.04142711491686</v>
+        <v>1.020551391066125</v>
       </c>
       <c r="M2">
-        <v>1.058378203606451</v>
+        <v>1.034222939497568</v>
       </c>
       <c r="N2">
-        <v>1.018955348806655</v>
+        <v>1.011996628345386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041351736615342</v>
+        <v>1.008756078169935</v>
       </c>
       <c r="D3">
-        <v>1.048351073446975</v>
+        <v>1.021506459833719</v>
       </c>
       <c r="E3">
-        <v>1.039601712462545</v>
+        <v>1.013584868761118</v>
       </c>
       <c r="F3">
-        <v>1.05674010434856</v>
+        <v>1.028057592798745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036506607541424</v>
+        <v>1.046282461749718</v>
       </c>
       <c r="J3">
-        <v>1.046084139735947</v>
+        <v>1.029010856759968</v>
       </c>
       <c r="K3">
-        <v>1.050925293048035</v>
+        <v>1.031871362339364</v>
       </c>
       <c r="L3">
-        <v>1.042198825033247</v>
+        <v>1.024046830025493</v>
       </c>
       <c r="M3">
-        <v>1.059292757763106</v>
+        <v>1.038343629582581</v>
       </c>
       <c r="N3">
-        <v>1.019216001933543</v>
+        <v>1.013216937025909</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042079954943642</v>
+        <v>1.012155664452352</v>
       </c>
       <c r="D4">
-        <v>1.049007641102278</v>
+        <v>1.024426834029458</v>
       </c>
       <c r="E4">
-        <v>1.040224574054876</v>
+        <v>1.016351228671486</v>
       </c>
       <c r="F4">
-        <v>1.057453425480667</v>
+        <v>1.031213191480947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036625204940288</v>
+        <v>1.047050289143857</v>
       </c>
       <c r="J4">
-        <v>1.046581879080664</v>
+        <v>1.031253456631025</v>
       </c>
       <c r="K4">
-        <v>1.051459149837395</v>
+        <v>1.034239123222483</v>
       </c>
       <c r="L4">
-        <v>1.042697901974708</v>
+        <v>1.026256234352993</v>
       </c>
       <c r="M4">
-        <v>1.059884320470822</v>
+        <v>1.040948948770591</v>
       </c>
       <c r="N4">
-        <v>1.019384351613516</v>
+        <v>1.013986878404703</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042386101411293</v>
+        <v>1.013566540805961</v>
       </c>
       <c r="D5">
-        <v>1.049283732734614</v>
+        <v>1.025640089381436</v>
       </c>
       <c r="E5">
-        <v>1.040486507960088</v>
+        <v>1.017500719729142</v>
       </c>
       <c r="F5">
-        <v>1.057753396188461</v>
+        <v>1.032524214745324</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036674706369538</v>
+        <v>1.047366074568131</v>
       </c>
       <c r="J5">
-        <v>1.046791001087491</v>
+        <v>1.032183413322987</v>
       </c>
       <c r="K5">
-        <v>1.051683508160625</v>
+        <v>1.035221507689089</v>
       </c>
       <c r="L5">
-        <v>1.042907649041724</v>
+        <v>1.027172994413515</v>
       </c>
       <c r="M5">
-        <v>1.060132962059257</v>
+        <v>1.042030160854891</v>
       </c>
       <c r="N5">
-        <v>1.019455051473494</v>
+        <v>1.014306013606415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042437504975233</v>
+        <v>1.013802381485087</v>
       </c>
       <c r="D6">
-        <v>1.049330093875346</v>
+        <v>1.02584296843447</v>
       </c>
       <c r="E6">
-        <v>1.040530492674196</v>
+        <v>1.017692948934152</v>
       </c>
       <c r="F6">
-        <v>1.057803767901466</v>
+        <v>1.032743445240482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036682996943949</v>
+        <v>1.047418690614635</v>
       </c>
       <c r="J6">
-        <v>1.046826106112434</v>
+        <v>1.032338818320076</v>
       </c>
       <c r="K6">
-        <v>1.051721174510573</v>
+        <v>1.035385704859966</v>
       </c>
       <c r="L6">
-        <v>1.042942862693374</v>
+        <v>1.027326227515476</v>
       </c>
       <c r="M6">
-        <v>1.0601747070662</v>
+        <v>1.042210891792156</v>
       </c>
       <c r="N6">
-        <v>1.019466917929856</v>
+        <v>1.01435933567574</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04208404567315</v>
+        <v>1.012174587588253</v>
       </c>
       <c r="D7">
-        <v>1.049011329974755</v>
+        <v>1.024443101701106</v>
       </c>
       <c r="E7">
-        <v>1.040228073702916</v>
+        <v>1.016366640512858</v>
       </c>
       <c r="F7">
-        <v>1.057457433348155</v>
+        <v>1.031230769867009</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036625867783403</v>
+        <v>1.047054535982185</v>
       </c>
       <c r="J7">
-        <v>1.046584673880458</v>
+        <v>1.031265932554251</v>
       </c>
       <c r="K7">
-        <v>1.051462148019167</v>
+        <v>1.034252300413578</v>
       </c>
       <c r="L7">
-        <v>1.042700704880187</v>
+        <v>1.026268530989008</v>
       </c>
       <c r="M7">
-        <v>1.059887643033646</v>
+        <v>1.040963450536895</v>
       </c>
       <c r="N7">
-        <v>1.019385296600701</v>
+        <v>1.013991160366707</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040606671203577</v>
+        <v>1.005213187984029</v>
       </c>
       <c r="D8">
-        <v>1.047679547918218</v>
+        <v>1.018467499267832</v>
       </c>
       <c r="E8">
-        <v>1.038964715487316</v>
+        <v>1.010706959691668</v>
       </c>
       <c r="F8">
-        <v>1.056010579227328</v>
+        <v>1.024773995525025</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036384048483159</v>
+        <v>1.045472438022421</v>
       </c>
       <c r="J8">
-        <v>1.045574443287322</v>
+        <v>1.026671239994039</v>
       </c>
       <c r="K8">
-        <v>1.05037882227814</v>
+        <v>1.029402994728913</v>
       </c>
       <c r="L8">
-        <v>1.041687974113408</v>
+        <v>1.021743825586238</v>
       </c>
       <c r="M8">
-        <v>1.058687326037041</v>
+        <v>1.035628526520121</v>
       </c>
       <c r="N8">
-        <v>1.019043501973686</v>
+        <v>1.012413213618513</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038003405212314</v>
+        <v>0.9922974564539175</v>
       </c>
       <c r="D9">
-        <v>1.045335031896258</v>
+        <v>1.007427192044513</v>
       </c>
       <c r="E9">
-        <v>1.036741173283882</v>
+        <v>1.000258261787056</v>
       </c>
       <c r="F9">
-        <v>1.053463921589116</v>
+        <v>1.01284571636357</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035946522867552</v>
+        <v>1.042445127119634</v>
       </c>
       <c r="J9">
-        <v>1.043790196599426</v>
+        <v>1.018125174465282</v>
       </c>
       <c r="K9">
-        <v>1.048467455316499</v>
+        <v>1.02040090669326</v>
       </c>
       <c r="L9">
-        <v>1.039901335153181</v>
+        <v>1.01334715026308</v>
       </c>
       <c r="M9">
-        <v>1.056570562825795</v>
+        <v>1.025733762910789</v>
       </c>
       <c r="N9">
-        <v>1.018438841630936</v>
+        <v>1.009474087284587</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036267884919996</v>
+        <v>0.9831933587325854</v>
       </c>
       <c r="D10">
-        <v>1.043773529903556</v>
+        <v>0.9996806323817654</v>
       </c>
       <c r="E10">
-        <v>1.035260598102259</v>
+        <v>0.9929327342730395</v>
       </c>
       <c r="F10">
-        <v>1.051768076325791</v>
+        <v>1.004476383912348</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035647174234391</v>
+        <v>1.040252096686829</v>
       </c>
       <c r="J10">
-        <v>1.042597937984961</v>
+        <v>1.012090030001776</v>
       </c>
       <c r="K10">
-        <v>1.047191582562689</v>
+        <v>1.014055655504738</v>
       </c>
       <c r="L10">
-        <v>1.038708840554259</v>
+        <v>1.007430773651127</v>
       </c>
       <c r="M10">
-        <v>1.055158267500551</v>
+        <v>1.018765283502434</v>
       </c>
       <c r="N10">
-        <v>1.018034140169542</v>
+        <v>1.007396183557569</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035516371705961</v>
+        <v>0.9791198944713565</v>
       </c>
       <c r="D11">
-        <v>1.043097737640106</v>
+        <v>0.9962240141079235</v>
       </c>
       <c r="E11">
-        <v>1.034619915486751</v>
+        <v>0.9896655256217778</v>
       </c>
       <c r="F11">
-        <v>1.051034209713021</v>
+        <v>1.000741846586347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035515735844744</v>
+        <v>1.039257602745327</v>
       </c>
       <c r="J11">
-        <v>1.042081018946255</v>
+        <v>1.009387868768894</v>
       </c>
       <c r="K11">
-        <v>1.046638726609455</v>
+        <v>1.011217493049498</v>
       </c>
       <c r="L11">
-        <v>1.038192142796543</v>
+        <v>1.004785002524334</v>
       </c>
       <c r="M11">
-        <v>1.054546459353112</v>
+        <v>1.015649786314683</v>
       </c>
       <c r="N11">
-        <v>1.017858521850015</v>
+        <v>1.006465392916358</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035237221913917</v>
+        <v>0.9775857631538805</v>
       </c>
       <c r="D12">
-        <v>1.042846770322877</v>
+        <v>0.9949237067190094</v>
       </c>
       <c r="E12">
-        <v>1.034381999784564</v>
+        <v>0.9884367137264112</v>
       </c>
       <c r="F12">
-        <v>1.050761685476959</v>
+        <v>0.9993369787851658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035466640582665</v>
+        <v>1.038881137248733</v>
       </c>
       <c r="J12">
-        <v>1.04188891219726</v>
+        <v>1.008369988002581</v>
       </c>
       <c r="K12">
-        <v>1.046433311660152</v>
+        <v>1.010148811012016</v>
       </c>
       <c r="L12">
-        <v>1.038000166942029</v>
+        <v>1.003788852484444</v>
       </c>
       <c r="M12">
-        <v>1.054319164884388</v>
+        <v>1.014476892268251</v>
       </c>
       <c r="N12">
-        <v>1.017793232275295</v>
+        <v>1.006114717036032</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035297100705149</v>
+        <v>0.9779158154961249</v>
       </c>
       <c r="D13">
-        <v>1.042900601315608</v>
+        <v>0.9952033845437058</v>
       </c>
       <c r="E13">
-        <v>1.034433030691906</v>
+        <v>0.9887010026679596</v>
       </c>
       <c r="F13">
-        <v>1.050820139848598</v>
+        <v>0.9996391468180074</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035477184045378</v>
+        <v>1.038962215588284</v>
       </c>
       <c r="J13">
-        <v>1.041930124278228</v>
+        <v>1.008588982411744</v>
       </c>
       <c r="K13">
-        <v>1.046477376568092</v>
+        <v>1.010378715764367</v>
       </c>
       <c r="L13">
-        <v>1.038041348740202</v>
+        <v>1.004003149386622</v>
       </c>
       <c r="M13">
-        <v>1.054367922211706</v>
+        <v>1.014729206310816</v>
       </c>
       <c r="N13">
-        <v>1.017807239695662</v>
+        <v>1.006190166362463</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035493297191602</v>
+        <v>0.9789935205570953</v>
       </c>
       <c r="D14">
-        <v>1.043076991544083</v>
+        <v>0.9961168701966933</v>
       </c>
       <c r="E14">
-        <v>1.034600248029782</v>
+        <v>0.989564267838793</v>
       </c>
       <c r="F14">
-        <v>1.051011681420656</v>
+        <v>1.000626087328376</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035511683188035</v>
+        <v>1.039226630090238</v>
       </c>
       <c r="J14">
-        <v>1.042065141384586</v>
+        <v>1.009304024646166</v>
       </c>
       <c r="K14">
-        <v>1.046621748164138</v>
+        <v>1.011129455632833</v>
       </c>
       <c r="L14">
-        <v>1.038176275060568</v>
+        <v>1.004702938417163</v>
       </c>
       <c r="M14">
-        <v>1.054527671973886</v>
+        <v>1.015553159584862</v>
       </c>
       <c r="N14">
-        <v>1.017853126158654</v>
+        <v>1.006436508360268</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035614179716548</v>
+        <v>0.9796546969545298</v>
       </c>
       <c r="D15">
-        <v>1.04318567826876</v>
+        <v>0.9966774990860801</v>
       </c>
       <c r="E15">
-        <v>1.034703284406678</v>
+        <v>0.9900941076502275</v>
       </c>
       <c r="F15">
-        <v>1.051129705303398</v>
+        <v>1.001231795303124</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035532903048185</v>
+        <v>1.039388598194848</v>
       </c>
       <c r="J15">
-        <v>1.042148316617739</v>
+        <v>1.009742681328351</v>
       </c>
       <c r="K15">
-        <v>1.046710692357172</v>
+        <v>1.011590068330399</v>
       </c>
       <c r="L15">
-        <v>1.038259400813921</v>
+        <v>1.005132302347649</v>
       </c>
       <c r="M15">
-        <v>1.054626093540315</v>
+        <v>1.016058720449743</v>
       </c>
       <c r="N15">
-        <v>1.017881390754114</v>
+        <v>1.00658762474395</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036317759830868</v>
+        <v>0.9834608228911048</v>
       </c>
       <c r="D16">
-        <v>1.043818387323198</v>
+        <v>0.9999077982257307</v>
       </c>
       <c r="E16">
-        <v>1.035303126850867</v>
+        <v>0.9931474853495678</v>
       </c>
       <c r="F16">
-        <v>1.051816789985902</v>
+        <v>1.004721813011581</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035655859055556</v>
+        <v>1.040317125268294</v>
       </c>
       <c r="J16">
-        <v>1.042632230195301</v>
+        <v>1.012267421942838</v>
       </c>
       <c r="K16">
-        <v>1.047228265447795</v>
+        <v>1.014242034962942</v>
       </c>
       <c r="L16">
-        <v>1.038743124902811</v>
+        <v>1.007604530999838</v>
       </c>
       <c r="M16">
-        <v>1.055198865367566</v>
+        <v>1.018969905060181</v>
       </c>
       <c r="N16">
-        <v>1.018045787371804</v>
+        <v>1.007457280072598</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036759090524655</v>
+        <v>0.9858122381408525</v>
       </c>
       <c r="D17">
-        <v>1.044215362046199</v>
+        <v>1.001906012451155</v>
       </c>
       <c r="E17">
-        <v>1.035679503470927</v>
+        <v>0.9950366722553716</v>
       </c>
       <c r="F17">
-        <v>1.052247899035781</v>
+        <v>1.006880671563739</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035732499265801</v>
+        <v>1.040887327375166</v>
       </c>
       <c r="J17">
-        <v>1.042935598585339</v>
+        <v>1.013826764876177</v>
       </c>
       <c r="K17">
-        <v>1.04755281947755</v>
+        <v>1.015880704695566</v>
       </c>
       <c r="L17">
-        <v>1.039046461105621</v>
+        <v>1.009132289869474</v>
       </c>
       <c r="M17">
-        <v>1.055558076126776</v>
+        <v>1.02076912375034</v>
       </c>
       <c r="N17">
-        <v>1.0181488072893</v>
+        <v>1.007994293623134</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037016509253166</v>
+        <v>0.9871712035316765</v>
       </c>
       <c r="D18">
-        <v>1.04444694432363</v>
+        <v>1.003061737366862</v>
       </c>
       <c r="E18">
-        <v>1.035899077756098</v>
+        <v>0.9961294831111172</v>
       </c>
       <c r="F18">
-        <v>1.052499400672343</v>
+        <v>1.008129307557101</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035777026748445</v>
+        <v>1.041215607749402</v>
       </c>
       <c r="J18">
-        <v>1.043112484270916</v>
+        <v>1.014727784318662</v>
       </c>
       <c r="K18">
-        <v>1.047742088298991</v>
+        <v>1.016827829694136</v>
       </c>
       <c r="L18">
-        <v>1.039223359219539</v>
+        <v>1.010015362857203</v>
       </c>
       <c r="M18">
-        <v>1.05576757118151</v>
+        <v>1.021809178589562</v>
       </c>
       <c r="N18">
-        <v>1.018208860410118</v>
+        <v>1.008304548933969</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037104282081691</v>
+        <v>0.9876324812648817</v>
       </c>
       <c r="D19">
-        <v>1.044525913611011</v>
+        <v>1.003454176373993</v>
       </c>
       <c r="E19">
-        <v>1.035973953732175</v>
+        <v>0.9965005832128351</v>
       </c>
       <c r="F19">
-        <v>1.052585163541703</v>
+        <v>1.008553295410626</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035792179708737</v>
+        <v>1.041326821318581</v>
       </c>
       <c r="J19">
-        <v>1.043172786880294</v>
+        <v>1.015033587514426</v>
       </c>
       <c r="K19">
-        <v>1.047806617631921</v>
+        <v>1.017149326548503</v>
       </c>
       <c r="L19">
-        <v>1.039283671355992</v>
+        <v>1.010315126378783</v>
       </c>
       <c r="M19">
-        <v>1.055838999097188</v>
+        <v>1.02216224290553</v>
       </c>
       <c r="N19">
-        <v>1.018229330756232</v>
+        <v>1.008409841228098</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036711740132359</v>
+        <v>0.9855612635387776</v>
       </c>
       <c r="D20">
-        <v>1.044172766938239</v>
+        <v>1.001692643522575</v>
       </c>
       <c r="E20">
-        <v>1.035639117667756</v>
+        <v>0.9948349301072099</v>
       </c>
       <c r="F20">
-        <v>1.052201640667828</v>
+        <v>1.006650149354404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035724294644603</v>
+        <v>1.0408265980042</v>
       </c>
       <c r="J20">
-        <v>1.042903056646715</v>
+        <v>1.013660348998788</v>
       </c>
       <c r="K20">
-        <v>1.047518001840063</v>
+        <v>1.015705794988914</v>
       </c>
       <c r="L20">
-        <v>1.039013919392207</v>
+        <v>1.008969213156502</v>
       </c>
       <c r="M20">
-        <v>1.05551953895581</v>
+        <v>1.020577063204436</v>
       </c>
       <c r="N20">
-        <v>1.018137758018625</v>
+        <v>1.007936986843552</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035435522344556</v>
+        <v>0.9786767560908998</v>
       </c>
       <c r="D21">
-        <v>1.04302504758484</v>
+        <v>0.9958483316219559</v>
       </c>
       <c r="E21">
-        <v>1.034551004971939</v>
+        <v>0.9893104858411638</v>
       </c>
       <c r="F21">
-        <v>1.050955275369591</v>
+        <v>1.000335955564416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035501531591739</v>
+        <v>1.039148964385396</v>
       </c>
       <c r="J21">
-        <v>1.042025384975463</v>
+        <v>1.009093860852992</v>
       </c>
       <c r="K21">
-        <v>1.046579235976377</v>
+        <v>1.010908787840182</v>
       </c>
       <c r="L21">
-        <v>1.03813654404044</v>
+        <v>1.00449724430975</v>
       </c>
       <c r="M21">
-        <v>1.054480630804213</v>
+        <v>1.015310965959011</v>
       </c>
       <c r="N21">
-        <v>1.01783961531582</v>
+        <v>1.006364105440883</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034633088013224</v>
+        <v>0.9742255663982712</v>
       </c>
       <c r="D22">
-        <v>1.042303731679131</v>
+        <v>0.9920785391002753</v>
       </c>
       <c r="E22">
-        <v>1.033867225965193</v>
+        <v>0.9857484458081208</v>
       </c>
       <c r="F22">
-        <v>1.05017202056298</v>
+        <v>0.9962629913454181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035359891020273</v>
+        <v>1.038053107371258</v>
       </c>
       <c r="J22">
-        <v>1.041472979197739</v>
+        <v>1.00614024084557</v>
       </c>
       <c r="K22">
-        <v>1.045988651433215</v>
+        <v>1.007808572127547</v>
       </c>
       <c r="L22">
-        <v>1.03758460639004</v>
+        <v>1.001607616009761</v>
       </c>
       <c r="M22">
-        <v>1.0538271866704</v>
+        <v>1.011908844401291</v>
       </c>
       <c r="N22">
-        <v>1.017651830718939</v>
+        <v>1.005346444450371</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03505847642334</v>
+        <v>0.9765973269220879</v>
       </c>
       <c r="D23">
-        <v>1.042686086484542</v>
+        <v>0.9940863601073001</v>
       </c>
       <c r="E23">
-        <v>1.034229676032082</v>
+        <v>0.9876454776292602</v>
       </c>
       <c r="F23">
-        <v>1.050587202455592</v>
+        <v>0.998432294591169</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035435127186136</v>
+        <v>1.038638048614863</v>
       </c>
       <c r="J23">
-        <v>1.041765874934736</v>
+        <v>1.007714122556469</v>
       </c>
       <c r="K23">
-        <v>1.046301764308371</v>
+        <v>1.009460333289602</v>
       </c>
       <c r="L23">
-        <v>1.037877227215974</v>
+        <v>1.003147127782944</v>
       </c>
       <c r="M23">
-        <v>1.054173612771067</v>
+        <v>1.013721338902133</v>
       </c>
       <c r="N23">
-        <v>1.017751410220656</v>
+        <v>1.005888746897831</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036733135742278</v>
+        <v>0.9856747069215893</v>
       </c>
       <c r="D24">
-        <v>1.044192013729903</v>
+        <v>1.001789085967807</v>
       </c>
       <c r="E24">
-        <v>1.035657366149533</v>
+        <v>0.994926116815724</v>
       </c>
       <c r="F24">
-        <v>1.052222542699973</v>
+        <v>1.006754345063776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035728002501828</v>
+        <v>1.040854052284881</v>
       </c>
       <c r="J24">
-        <v>1.042917761145468</v>
+        <v>1.013735571436077</v>
       </c>
       <c r="K24">
-        <v>1.047533734549118</v>
+        <v>1.015784855928319</v>
       </c>
       <c r="L24">
-        <v>1.039028623692811</v>
+        <v>1.009042925301106</v>
       </c>
       <c r="M24">
-        <v>1.055536952326236</v>
+        <v>1.020663876075941</v>
       </c>
       <c r="N24">
-        <v>1.018142750821636</v>
+        <v>1.007962890485833</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038676410076927</v>
+        <v>0.9957190031489552</v>
       </c>
       <c r="D25">
-        <v>1.045940879059485</v>
+        <v>1.010346113052197</v>
       </c>
       <c r="E25">
-        <v>1.037315697407887</v>
+        <v>1.00301979113494</v>
       </c>
       <c r="F25">
-        <v>1.05412195314032</v>
+        <v>1.015999327060793</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036060985149884</v>
+        <v>1.043257493463567</v>
       </c>
       <c r="J25">
-        <v>1.044251953007518</v>
+        <v>1.020391303850085</v>
       </c>
       <c r="K25">
-        <v>1.04896187581291</v>
+        <v>1.022785914279811</v>
       </c>
       <c r="L25">
-        <v>1.040363470891795</v>
+        <v>1.015571408913667</v>
       </c>
       <c r="M25">
-        <v>1.057117993526121</v>
+        <v>1.028354249212132</v>
       </c>
       <c r="N25">
-        <v>1.018595442013909</v>
+        <v>1.010253880034121</v>
       </c>
     </row>
   </sheetData>
